--- a/AL20v1_2024-04-12/Serial monitor baud 1200_fast.xlsx
+++ b/AL20v1_2024-04-12/Serial monitor baud 1200_fast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smartin/Documents/MATLAB/GitHub/windtunnel/AL20v1_2024-04-12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF5C7E9-5F30-6E46-98D2-3A80C84A0B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A297E1BA-96A4-6C48-8714-FC0A7CECCC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{F1863565-4F15-D545-9057-A6D2D61D728D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{F1863565-4F15-D545-9057-A6D2D61D728D}"/>
   </bookViews>
   <sheets>
     <sheet name="Free stream" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,13 @@
     <sheet name="U ~ 0.81 (inner slope)" sheetId="5" r:id="rId5"/>
     <sheet name="U ~ 0.88 (center peak)" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'U ~ 0.7 (nadir)'!$B$2:$B$403</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'U ~ 0.7 (nadir)'!$C$2:$C$403</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'U ~ 0.7 (nadir)'!$B$2:$B$403</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'U ~ 0.7 (nadir)'!$C$2:$C$403</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,6 +38,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -40,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="2422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="2422">
   <si>
     <t>Time</t>
   </si>
@@ -7341,9 +7348,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15487,25 +15495,17 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'U ~ 0.7 (nadir)'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Voltage</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Voltage</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -15514,1230 +15514,1246 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'U ~ 0.7 (nadir)'!$A$3:$A$405</c:f>
-              <c:strCache>
-                <c:ptCount val="401"/>
-                <c:pt idx="0">
-                  <c:v>15:17:40.276</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15:17:40.312</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15:17:40.387</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15:17:40.425</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15:17:40.463</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15:17:40.538</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15:17:40.576</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15:17:40.648</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15:17:40.684</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15:17:40.717</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15:17:40.785</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15:17:40.819</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15:17:40.891</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15:17:40.924</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15:17:40.961</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15:17:41.033</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15:17:41.069</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15:17:41.140</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15:17:41.175</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>15:17:41.210</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15:17:41.282</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15:17:41.319</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15:17:41.392</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>15:17:41.426</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15:17:41.460</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>15:17:41.526</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>15:17:41.593</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15:17:41.626</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>15:17:41.660</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>15:17:41.732</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>15:17:41.766</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>15:17:41.837</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15:17:41.875</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>15:17:41.942</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>15:17:41.976</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>15:17:42.010</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>15:17:42.079</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>15:17:42.116</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>15:17:42.187</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>15:17:42.224</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>15:17:42.294</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>15:17:42.331</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>15:17:42.368</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>15:17:42.439</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>15:17:42.474</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>15:17:42.543</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>15:17:42.576</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>15:17:42.644</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>15:17:42.682</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>15:17:42.716</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>15:17:42.786</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>15:17:42.820</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>15:17:42.892</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>15:17:42.926</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>15:17:42.993</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>15:17:43.027</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>15:17:43.093</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>15:17:43.128</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>15:17:43.166</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>15:17:43.236</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>15:17:43.274</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>15:17:43.312</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>15:17:43.379</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>15:17:43.416</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>15:17:43.488</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>15:17:43.521</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>15:17:43.589</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>15:17:43.622</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>15:17:43.690</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>15:17:43.723</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>15:17:43.791</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>15:17:43.825</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>15:17:43.894</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>15:17:43.927</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>15:17:43.966</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>15:17:44.035</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>15:17:44.069</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>15:17:44.141</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>15:17:44.178</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>15:17:44.215</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>15:17:44.290</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>15:17:44.325</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>15:17:44.395</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>15:17:44.428</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>15:17:44.466</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>15:17:44.540</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>15:17:44.575</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>15:17:44.644</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>15:17:44.678</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>15:17:44.715</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>15:17:44.785</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>15:17:44.820</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>15:17:44.891</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>15:17:44.924</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>15:17:44.994</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>15:17:45.027</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>15:17:45.096</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>15:17:45.132</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>15:17:45.169</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>15:17:45.245</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>15:17:45.283</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>15:17:45.317</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>15:17:45.386</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>15:17:45.419</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>15:17:45.493</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>15:17:45.527</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>15:17:45.595</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>15:17:45.634</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>15:17:45.669</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>15:17:45.743</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>15:17:45.777</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>15:17:45.813</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>15:17:45.886</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>15:17:45.920</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>15:17:45.991</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>15:17:46.025</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>15:17:46.094</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>15:17:46.127</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>15:17:46.193</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>15:17:46.227</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>15:17:46.300</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>15:17:46.335</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>15:17:46.370</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>15:17:46.438</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>15:17:46.472</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>15:17:46.540</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>15:17:46.577</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>15:17:46.644</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>15:17:46.677</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>15:17:46.746</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>15:17:46.784</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>15:17:46.818</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>15:17:46.886</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>15:17:46.924</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>15:17:46.994</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>15:17:47.028</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>15:17:47.095</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>15:17:47.129</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>15:17:47.166</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>15:17:47.235</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>15:17:47.270</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>15:17:47.344</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>15:17:47.377</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>15:17:47.444</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>15:17:47.481</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>15:17:47.519</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>15:17:47.586</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>15:17:47.622</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>15:17:47.694</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>15:17:47.729</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>15:17:47.763</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>15:17:47.836</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>15:17:47.872</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>15:17:47.944</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>15:17:47.979</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>15:17:48.015</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>15:17:48.091</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>15:17:48.128</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>15:17:48.197</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>15:17:48.235</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>15:17:48.270</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>15:17:48.344</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>15:17:48.377</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>15:17:48.415</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>15:17:48.482</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>15:17:48.516</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>15:17:48.590</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>15:17:48.627</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>15:17:48.696</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>15:17:48.731</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>15:17:48.766</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>15:17:48.839</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>15:17:48.877</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>15:17:48.948</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>15:17:48.982</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>15:17:49.015</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>15:17:49.086</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>15:17:49.120</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>15:17:49.189</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>15:17:49.227</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>15:17:49.294</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>15:17:49.327</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>15:17:49.364</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>15:17:49.439</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>15:17:49.473</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>15:17:49.540</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>15:17:49.579</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>15:17:49.615</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>15:17:49.687</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>15:17:49.720</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>15:17:49.795</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>15:17:49.830</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>15:17:49.868</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>15:17:49.941</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>15:17:49.974</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>15:17:50.044</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>15:17:50.082</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>15:17:50.115</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>15:17:50.190</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>15:17:50.224</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>15:17:50.294</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>15:17:50.327</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>15:17:50.394</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>15:17:50.428</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>15:17:50.498</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>15:17:50.531</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>15:17:50.564</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>15:17:50.637</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>15:17:50.674</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>15:17:50.745</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>15:17:50.781</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>15:17:50.816</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>15:17:50.887</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>15:17:50.922</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>15:17:50.990</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>15:17:51.024</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>15:17:51.096</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>15:17:51.130</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>15:17:51.197</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>15:17:51.230</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>15:17:51.298</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>15:17:51.332</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>15:17:51.369</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>15:17:51.440</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>15:17:51.478</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>15:17:51.516</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>15:17:51.584</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>15:17:51.617</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>15:17:51.684</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>15:17:51.721</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>15:17:51.794</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>15:17:51.828</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>15:17:51.899</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>15:17:51.937</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>15:17:51.971</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>15:17:52.039</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>15:17:52.077</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>15:17:52.144</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>15:17:52.178</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>15:17:52.215</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>15:17:52.284</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>15:17:52.320</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>15:17:52.390</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>15:17:52.427</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>15:17:52.502</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>15:17:52.536</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>15:17:52.571</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>15:17:52.642</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>15:17:52.677</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>15:17:52.753</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>15:17:52.792</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>15:17:52.828</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>15:17:52.895</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>15:17:52.929</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>15:17:52.996</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>15:17:53.033</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>15:17:53.068</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>15:17:53.140</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>15:17:53.174</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>15:17:53.243</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>15:17:53.277</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>15:17:53.350</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>15:17:53.383</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>15:17:53.416</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>15:17:53.488</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>15:17:53.522</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>15:17:53.595</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>15:17:53.631</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>15:17:53.665</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>15:17:53.741</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>15:17:53.775</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>15:17:53.845</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>15:17:53.881</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>15:17:53.916</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>15:17:53.988</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>15:17:54.022</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>15:17:54.094</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>15:17:54.128</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>15:17:54.194</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>15:17:54.230</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>15:17:54.300</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>15:17:54.334</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>15:17:54.369</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>15:17:54.442</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>15:17:54.479</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>15:17:54.549</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>15:17:54.587</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>15:17:54.620</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>15:17:54.692</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>15:17:54.729</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>15:17:54.800</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>15:17:54.838</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>15:17:54.872</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>15:17:54.947</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>15:17:54.983</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>15:17:55.022</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>15:17:55.090</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>15:17:55.126</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>15:17:55.194</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>15:17:55.228</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>15:17:55.295</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>15:17:55.328</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>15:17:55.394</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>15:17:55.428</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>15:17:55.499</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>15:17:55.537</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>15:17:55.573</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>15:17:55.642</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>15:17:55.678</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>15:17:55.749</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>15:17:55.783</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>15:17:55.817</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>15:17:55.889</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>15:17:55.925</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>15:17:55.995</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>15:17:56.028</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>15:17:56.095</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>15:17:56.128</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>15:17:56.195</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>15:17:56.228</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>15:17:56.295</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>15:17:56.329</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>15:17:56.397</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>15:17:56.433</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>15:17:56.471</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>15:17:56.543</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>15:17:56.576</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>15:17:56.645</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>15:17:56.678</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>15:17:56.748</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>15:17:56.785</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>15:17:56.823</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>15:17:56.893</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>15:17:56.927</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>15:17:56.999</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>15:17:57.033</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>15:17:57.069</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>15:17:57.141</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>15:17:57.178</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>15:17:57.245</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>15:17:57.278</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>15:17:57.345</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>15:17:57.378</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>15:17:57.449</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>15:17:57.485</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>15:17:57.523</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>15:17:57.595</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>15:17:57.628</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>15:17:57.701</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>15:17:57.735</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>15:17:57.773</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>15:17:57.847</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>15:17:57.882</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>15:17:57.916</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>15:17:57.985</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>15:17:58.019</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>15:17:58.091</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>15:17:58.124</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>15:17:58.192</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>15:17:58.227</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>15:17:58.295</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>15:17:58.328</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>15:17:58.395</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>15:17:58.428</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>15:17:58.495</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>15:17:58.529</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>15:17:58.606</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>15:17:58.640</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>15:17:58.677</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>15:17:58.751</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>15:17:58.789</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>15:17:58.823</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>15:17:58.894</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>15:17:58.928</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>15:17:58.996</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>15:17:59.034</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>15:17:59.072</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>15:17:59.144</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>15:17:59.178</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>15:17:59.251</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>15:17:59.288</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>15:17:59.322</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>15:17:59.392</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>15:17:59.425</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>15:17:59.495</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>15:17:59.533</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>15:17:59.603</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>15:17:59.636</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>15:17:59.672</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>15:17:59.739</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>15:17:59.775</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>15:17:59.845</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>15:17:59.878</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>15:17:59.951</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>15:17:59.989</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>15:18:00.024</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>15:18:00.095</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>15:18:00.128</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>15:18:00.195</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>15:18:00.229</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>15:18:00.301</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>'U ~ 0.7 (nadir)'!$B$3:$B$405</c:f>
+              <c:f>'U ~ 0.7 (nadir)'!$C$2:$C$403</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="403"/>
+                <c:ptCount val="402"/>
                 <c:pt idx="0">
+                  <c:v>40.238999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.276000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.311999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.387</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.424999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.463000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.537999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.576000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.648000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.683999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.716999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.784999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.819000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.890999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.923999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.960999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.033000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41.069000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41.14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41.174999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41.281999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41.319000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41.392000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41.426000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41.46</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41.526000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41.593000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41.625999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41.66</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41.731999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41.765999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41.837000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41.875</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41.942</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41.975999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42.01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42.079000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42.116</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42.186999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42.223999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.293999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42.331000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42.368000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42.439</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42.473999999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42.542999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42.576000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42.643999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42.682000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42.716000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42.786000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42.82</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42.892000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42.926000000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42.993000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43.027000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43.093000000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43.128</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43.165999999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43.235999999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43.274000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43.311999999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43.378999999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43.415999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43.488</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43.521000000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43.588999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43.622</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43.722999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43.790999999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43.825000000000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43.893999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43.927</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43.966000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44.034999999999997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44.069000000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44.140999999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44.177999999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44.215000000000003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44.29</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44.325000000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44.395000000000003</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44.427999999999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44.466000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44.54</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44.575000000000003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44.643999999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44.677999999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44.715000000000003</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44.784999999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44.82</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44.890999999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44.923999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44.994</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45.027000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45.095999999999997</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45.131999999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45.168999999999997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45.244999999999997</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45.283000000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45.317</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45.386000000000003</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45.418999999999997</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>45.493000000000002</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>45.527000000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>45.594999999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>45.634</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>45.668999999999997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>45.743000000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45.777000000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>45.813000000000002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>45.886000000000003</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>45.92</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>45.991</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>46.024999999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>46.094000000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>46.127000000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>46.192999999999998</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>46.226999999999997</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>46.3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>46.335000000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>46.37</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>46.438000000000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>46.472000000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>46.54</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>46.576999999999998</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>46.643999999999998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>46.677</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>46.746000000000002</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>46.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>46.817999999999998</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>46.886000000000003</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>46.923999999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>46.994</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>47.027999999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>47.094999999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>47.128999999999998</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>47.165999999999997</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>47.234999999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>47.27</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>47.344000000000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>47.377000000000002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>47.444000000000003</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>47.481000000000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>47.518999999999998</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>47.585999999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>47.622</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>47.694000000000003</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>47.728999999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>47.762999999999998</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>47.835999999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>47.872</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>47.944000000000003</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>47.978999999999999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>48.015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>48.091000000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>48.128</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>48.197000000000003</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>48.234999999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>48.27</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>48.344000000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>48.377000000000002</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>48.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>48.481999999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>48.515999999999998</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>48.59</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>48.627000000000002</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>48.695999999999998</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>48.731000000000002</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>48.765999999999998</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>48.838999999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>48.877000000000002</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>48.948</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>48.981999999999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>49.015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>49.085999999999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>49.12</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>49.189</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>49.226999999999997</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>49.293999999999997</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>49.326999999999998</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>49.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>49.439</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>49.472999999999999</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>49.54</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>49.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>49.615000000000002</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>49.686999999999998</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>49.72</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>49.795000000000002</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>49.83</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>49.868000000000002</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>49.941000000000003</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>49.973999999999997</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>50.043999999999997</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>50.082000000000001</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>50.115000000000002</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>50.19</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>50.223999999999997</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>50.293999999999997</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>50.326999999999998</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>50.393999999999998</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>50.427999999999997</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>50.497999999999998</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>50.530999999999999</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>50.564</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>50.637</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>50.673999999999999</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>50.744999999999997</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>50.780999999999999</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>50.816000000000003</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>50.887</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>50.921999999999997</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>50.99</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>51.024000000000001</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>51.095999999999997</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>51.13</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>51.197000000000003</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>51.23</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>51.298000000000002</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>51.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>51.369</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>51.44</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>51.478000000000002</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>51.515999999999998</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>51.584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>51.616999999999997</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>51.683999999999997</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>51.720999999999997</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>51.793999999999997</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>51.828000000000003</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>51.899000000000001</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>51.936999999999998</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>51.970999999999997</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>52.039000000000001</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>52.076999999999998</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>52.143999999999998</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>52.177999999999997</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>52.215000000000003</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>52.283999999999999</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>52.32</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>52.39</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>52.427</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>52.502000000000002</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>52.536000000000001</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>52.570999999999998</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>52.642000000000003</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>52.677</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>52.753</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>52.792000000000002</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>52.828000000000003</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>52.895000000000003</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>52.929000000000002</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>52.996000000000002</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>53.033000000000001</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>53.067999999999998</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>53.14</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>53.173999999999999</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>53.243000000000002</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>53.277000000000001</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>53.35</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>53.383000000000003</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>53.415999999999997</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>53.488</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>53.521999999999998</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>53.594999999999999</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>53.631</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>53.664999999999999</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>53.741</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>53.774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>53.844999999999999</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>53.881</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>53.915999999999997</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>53.988</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>54.021999999999998</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>54.094000000000001</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>54.128</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>54.194000000000003</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>54.23</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>54.3</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>54.334000000000003</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>54.369</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>54.442</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>54.478999999999999</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>54.548999999999999</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>54.587000000000003</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>54.62</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>54.692</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>54.728999999999999</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>54.8</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>54.838000000000001</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>54.872</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>54.947000000000003</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>54.982999999999997</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>55.021999999999998</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>55.09</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>55.125999999999998</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>55.194000000000003</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>55.228000000000002</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>55.295000000000002</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>55.328000000000003</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>55.393999999999998</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>55.427999999999997</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>55.499000000000002</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>55.536999999999999</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>55.573</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>55.642000000000003</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>55.677999999999997</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>55.749000000000002</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>55.783000000000001</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>55.817</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>55.889000000000003</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>55.924999999999997</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>55.994999999999997</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>56.027999999999999</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>56.094999999999999</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>56.128</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>56.195</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>56.228000000000002</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>56.295000000000002</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>56.329000000000001</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>56.396999999999998</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>56.433</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>56.470999999999997</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>56.542999999999999</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>56.576000000000001</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>56.645000000000003</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>56.677999999999997</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>56.747999999999998</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>56.784999999999997</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>56.823</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>56.893000000000001</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>56.927</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>56.999000000000002</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>57.033000000000001</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>57.069000000000003</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>57.140999999999998</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>57.177999999999997</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>57.244999999999997</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>57.277999999999999</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>57.344999999999999</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>57.378</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>57.448999999999998</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>57.484999999999999</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>57.523000000000003</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>57.594999999999999</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>57.628</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>57.701000000000001</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>57.734999999999999</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>57.773000000000003</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>57.847000000000001</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>57.881999999999998</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>57.915999999999997</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>57.984999999999999</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>58.018999999999998</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>58.091000000000001</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>58.124000000000002</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>58.192</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>58.226999999999997</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>58.295000000000002</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>58.328000000000003</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>58.395000000000003</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>58.427999999999997</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>58.494999999999997</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>58.529000000000003</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>58.606000000000002</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>58.64</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>58.677</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>58.750999999999998</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>58.789000000000001</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>58.823</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>58.893999999999998</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>58.927999999999997</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>58.996000000000002</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>59.033999999999999</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>59.072000000000003</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>59.143999999999998</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>59.177999999999997</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>59.250999999999998</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>59.287999999999997</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>59.322000000000003</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>59.392000000000003</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>59.424999999999997</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>59.494999999999997</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>59.533000000000001</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>59.603000000000002</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>59.636000000000003</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>59.671999999999997</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>59.738999999999997</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>59.774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>59.844999999999999</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>59.878</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>59.951000000000001</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>59.988999999999997</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>60.024000000000001</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>60.094999999999999</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>60.128</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>60.195</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>60.228999999999999</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>60.301000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'U ~ 0.7 (nadir)'!$B$2:$B$403</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="402"/>
+                <c:pt idx="0">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.38</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.37</c:v>
@@ -16749,7 +16765,7 @@
                   <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.36</c:v>
+                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.36</c:v>
@@ -16758,10 +16774,10 @@
                   <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2.37</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.38</c:v>
@@ -16770,19 +16786,19 @@
                   <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.39</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.39</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2.39</c:v>
@@ -16791,7 +16807,7 @@
                   <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.38</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.38</c:v>
@@ -16800,13 +16816,13 @@
                   <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>2.37</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>2.38</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2.39</c:v>
@@ -16815,13 +16831,13 @@
                   <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.4</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.39</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2.39</c:v>
@@ -16830,16 +16846,16 @@
                   <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>2.38</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.36</c:v>
+                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2.36</c:v>
@@ -16848,22 +16864,22 @@
                   <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>2.35</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>2.36</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>2.38</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.4</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>2.4</c:v>
@@ -16875,22 +16891,22 @@
                   <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>2.39</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>2.37</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>2.35</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.33</c:v>
+                  <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>2.33</c:v>
@@ -16899,25 +16915,25 @@
                   <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>2.34</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>2.35</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.37</c:v>
+                  <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.38</c:v>
+                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2.38</c:v>
@@ -16929,40 +16945,40 @@
                   <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.37</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="67">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>2.36</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="70">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>2.36</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>2.37</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.4</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.41</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2.41</c:v>
@@ -16971,34 +16987,34 @@
                   <c:v>2.41</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>2.4</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>2.38</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>2.36</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.34</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>2.33</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>2.34</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>2.35</c:v>
@@ -17007,7 +17023,7 @@
                   <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.36</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>2.36</c:v>
@@ -17022,7 +17038,7 @@
                   <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.37</c:v>
+                  <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>2.37</c:v>
@@ -17040,25 +17056,25 @@
                   <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.38</c:v>
+                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.37</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.36</c:v>
+                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.37</c:v>
+                  <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>2.37</c:v>
@@ -17067,22 +17083,22 @@
                   <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="111">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="112">
                   <c:v>2.39</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="113">
                   <c:v>2.42</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="114">
                   <c:v>2.44</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="115">
                   <c:v>2.4500000000000002</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
                   <c:v>2.46</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2.4700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>2.4700000000000002</c:v>
@@ -17091,31 +17107,31 @@
                   <c:v>2.4700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="119">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
                   <c:v>2.46</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="121">
                   <c:v>2.4500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>2.4300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>2.4300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="123">
+                  <c:v>2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="124">
                   <c:v>2.41</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="125">
                   <c:v>2.42</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2.41</c:v>
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>2.41</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2.4</c:v>
+                  <c:v>2.41</c:v>
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>2.4</c:v>
@@ -17136,28 +17152,28 @@
                   <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.39</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="136">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="137">
                   <c:v>2.38</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.35</c:v>
+                  <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="140">
                   <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.34</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="142">
                   <c:v>2.34</c:v>
@@ -17166,19 +17182,19 @@
                   <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="144">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="145">
                   <c:v>2.35</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="146">
                   <c:v>2.36</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="147">
                   <c:v>2.37</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="148">
                   <c:v>2.38</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="149">
                   <c:v>2.39</c:v>
@@ -17199,7 +17215,7 @@
                   <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2.38</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="156">
                   <c:v>2.38</c:v>
@@ -17235,7 +17251,7 @@
                   <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2.39</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="168">
                   <c:v>2.39</c:v>
@@ -17244,7 +17260,7 @@
                   <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2.4</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>2.4</c:v>
@@ -17259,19 +17275,19 @@
                   <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="175">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="176">
                   <c:v>2.39</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="177">
                   <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="178">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="179">
                   <c:v>2.35</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="180">
                   <c:v>2.34</c:v>
@@ -17280,40 +17296,40 @@
                   <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="182">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="183">
                   <c:v>2.33</c:v>
                 </c:pt>
-                <c:pt idx="183">
+                <c:pt idx="184">
                   <c:v>2.34</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="185">
                   <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2.36</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="187">
                   <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2.38</c:v>
+                  <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="189">
                   <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2.39</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="191">
                   <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="192">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="193">
                   <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>2.41</c:v>
                 </c:pt>
                 <c:pt idx="194">
                   <c:v>2.41</c:v>
@@ -17331,13 +17347,13 @@
                   <c:v>2.41</c:v>
                 </c:pt>
                 <c:pt idx="199">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="200">
                   <c:v>2.4</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="201">
                   <c:v>2.41</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="202">
                   <c:v>2.4</c:v>
@@ -17361,7 +17377,7 @@
                   <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2.41</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="210">
                   <c:v>2.41</c:v>
@@ -17370,31 +17386,31 @@
                   <c:v>2.41</c:v>
                 </c:pt>
                 <c:pt idx="212">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="213">
                   <c:v>2.42</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>2.41</c:v>
                 </c:pt>
                 <c:pt idx="214">
                   <c:v>2.41</c:v>
                 </c:pt>
                 <c:pt idx="215">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="216">
                   <c:v>2.39</c:v>
                 </c:pt>
-                <c:pt idx="216">
+                <c:pt idx="217">
                   <c:v>2.37</c:v>
                 </c:pt>
-                <c:pt idx="217">
+                <c:pt idx="218">
                   <c:v>2.35</c:v>
                 </c:pt>
-                <c:pt idx="218">
+                <c:pt idx="219">
                   <c:v>2.34</c:v>
                 </c:pt>
-                <c:pt idx="219">
+                <c:pt idx="220">
                   <c:v>2.33</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>2.3199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="221">
                   <c:v>2.3199999999999998</c:v>
@@ -17403,43 +17419,43 @@
                   <c:v>2.3199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="223">
+                  <c:v>2.3199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="224">
                   <c:v>2.33</c:v>
                 </c:pt>
-                <c:pt idx="224">
+                <c:pt idx="225">
                   <c:v>2.35</c:v>
                 </c:pt>
-                <c:pt idx="225">
+                <c:pt idx="226">
                   <c:v>2.37</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="227">
                   <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="228">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="229">
                   <c:v>2.4</c:v>
                 </c:pt>
-                <c:pt idx="229">
+                <c:pt idx="230">
                   <c:v>2.41</c:v>
                 </c:pt>
-                <c:pt idx="230">
+                <c:pt idx="231">
                   <c:v>2.42</c:v>
                 </c:pt>
-                <c:pt idx="231">
+                <c:pt idx="232">
                   <c:v>2.41</c:v>
                 </c:pt>
-                <c:pt idx="232">
+                <c:pt idx="233">
                   <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="234">
                   <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2.38</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="236">
                   <c:v>2.38</c:v>
@@ -17457,10 +17473,10 @@
                   <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="241">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="242">
                   <c:v>2.37</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="243">
                   <c:v>2.38</c:v>
@@ -17478,7 +17494,7 @@
                   <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2.37</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="249">
                   <c:v>2.37</c:v>
@@ -17487,7 +17503,7 @@
                   <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>2.36</c:v>
+                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="252">
                   <c:v>2.36</c:v>
@@ -17496,19 +17512,19 @@
                   <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="254">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="255">
                   <c:v>2.35</c:v>
                 </c:pt>
-                <c:pt idx="255">
+                <c:pt idx="256">
                   <c:v>2.36</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="257">
                   <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>2.38</c:v>
+                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="259">
                   <c:v>2.38</c:v>
@@ -17523,46 +17539,46 @@
                   <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="263">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="264">
                   <c:v>2.39</c:v>
                 </c:pt>
-                <c:pt idx="264">
+                <c:pt idx="265">
                   <c:v>2.4</c:v>
                 </c:pt>
-                <c:pt idx="265">
+                <c:pt idx="266">
                   <c:v>2.41</c:v>
                 </c:pt>
-                <c:pt idx="266">
+                <c:pt idx="267">
                   <c:v>2.42</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>2.4300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="268">
                   <c:v>2.4300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="269">
+                  <c:v>2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="270">
                   <c:v>2.44</c:v>
                 </c:pt>
-                <c:pt idx="270">
+                <c:pt idx="271">
                   <c:v>2.4500000000000002</c:v>
                 </c:pt>
-                <c:pt idx="271">
+                <c:pt idx="272">
                   <c:v>2.4300000000000002</c:v>
                 </c:pt>
-                <c:pt idx="272">
+                <c:pt idx="273">
                   <c:v>2.42</c:v>
                 </c:pt>
-                <c:pt idx="273">
+                <c:pt idx="274">
                   <c:v>2.41</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>2.39</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>2.39</c:v>
@@ -17574,13 +17590,13 @@
                   <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="280">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="281">
                   <c:v>2.4</c:v>
                 </c:pt>
-                <c:pt idx="281">
+                <c:pt idx="282">
                   <c:v>2.41</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>2.42</c:v>
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>2.42</c:v>
@@ -17598,13 +17614,13 @@
                   <c:v>2.42</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>2.41</c:v>
+                  <c:v>2.42</c:v>
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>2.41</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>2.4</c:v>
+                  <c:v>2.41</c:v>
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>2.4</c:v>
@@ -17619,19 +17635,19 @@
                   <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="295">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="296">
                   <c:v>2.39</c:v>
                 </c:pt>
-                <c:pt idx="296">
+                <c:pt idx="297">
                   <c:v>2.38</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>2.36</c:v>
+                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="300">
                   <c:v>2.36</c:v>
@@ -17646,40 +17662,40 @@
                   <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="304">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="305">
                   <c:v>2.37</c:v>
                 </c:pt>
-                <c:pt idx="305">
+                <c:pt idx="306">
                   <c:v>2.38</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="307">
                   <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>2.4</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="310">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="311">
                   <c:v>2.41</c:v>
                 </c:pt>
-                <c:pt idx="311">
+                <c:pt idx="312">
                   <c:v>2.4300000000000002</c:v>
                 </c:pt>
-                <c:pt idx="312">
+                <c:pt idx="313">
                   <c:v>2.4500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>2.4700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="314">
                   <c:v>2.4700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>2.48</c:v>
+                  <c:v>2.4700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>2.48</c:v>
@@ -17691,22 +17707,22 @@
                   <c:v>2.48</c:v>
                 </c:pt>
                 <c:pt idx="319">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="320">
                   <c:v>2.4700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>2.46</c:v>
                 </c:pt>
                 <c:pt idx="321">
                   <c:v>2.46</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>2.4500000000000002</c:v>
+                  <c:v>2.46</c:v>
                 </c:pt>
                 <c:pt idx="323">
                   <c:v>2.4500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>2.44</c:v>
+                  <c:v>2.4500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="325">
                   <c:v>2.44</c:v>
@@ -17715,10 +17731,10 @@
                   <c:v>2.44</c:v>
                 </c:pt>
                 <c:pt idx="327">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="328">
                   <c:v>2.4300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>2.42</c:v>
                 </c:pt>
                 <c:pt idx="329">
                   <c:v>2.42</c:v>
@@ -17727,7 +17743,7 @@
                   <c:v>2.42</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>2.41</c:v>
+                  <c:v>2.42</c:v>
                 </c:pt>
                 <c:pt idx="332">
                   <c:v>2.41</c:v>
@@ -17739,70 +17755,70 @@
                   <c:v>2.41</c:v>
                 </c:pt>
                 <c:pt idx="335">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="336">
                   <c:v>2.39</c:v>
                 </c:pt>
-                <c:pt idx="336">
+                <c:pt idx="337">
                   <c:v>2.37</c:v>
                 </c:pt>
-                <c:pt idx="337">
+                <c:pt idx="338">
                   <c:v>2.36</c:v>
                 </c:pt>
-                <c:pt idx="338">
+                <c:pt idx="339">
                   <c:v>2.35</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="340">
                   <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>2.33</c:v>
+                  <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="342">
                   <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>2.34</c:v>
+                  <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="344">
                   <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>2.35</c:v>
+                  <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="346">
                   <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>2.36</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="348">
                   <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>2.37</c:v>
+                  <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="350">
                   <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="351">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="352">
                   <c:v>2.39</c:v>
                 </c:pt>
-                <c:pt idx="352">
+                <c:pt idx="353">
                   <c:v>2.4</c:v>
                 </c:pt>
-                <c:pt idx="353">
+                <c:pt idx="354">
                   <c:v>2.41</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>2.42</c:v>
                 </c:pt>
                 <c:pt idx="355">
                   <c:v>2.42</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>2.4300000000000002</c:v>
+                  <c:v>2.42</c:v>
                 </c:pt>
                 <c:pt idx="357">
                   <c:v>2.4300000000000002</c:v>
@@ -17811,19 +17827,19 @@
                   <c:v>2.4300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="359">
+                  <c:v>2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="360">
                   <c:v>2.42</c:v>
                 </c:pt>
-                <c:pt idx="360">
+                <c:pt idx="361">
                   <c:v>2.41</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="362">
                   <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>2.39</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="364">
                   <c:v>2.39</c:v>
@@ -17859,13 +17875,13 @@
                   <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="375">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="376">
                   <c:v>2.38</c:v>
                 </c:pt>
-                <c:pt idx="376">
+                <c:pt idx="377">
                   <c:v>2.39</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="378">
                   <c:v>2.38</c:v>
@@ -17889,19 +17905,19 @@
                   <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="385">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="386">
                   <c:v>2.39</c:v>
                 </c:pt>
-                <c:pt idx="386">
+                <c:pt idx="387">
                   <c:v>2.38</c:v>
                 </c:pt>
-                <c:pt idx="387">
+                <c:pt idx="388">
                   <c:v>2.39</c:v>
                 </c:pt>
-                <c:pt idx="388">
+                <c:pt idx="389">
                   <c:v>2.38</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="390">
                   <c:v>2.39</c:v>
@@ -17931,18 +17947,21 @@
                   <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>2.4</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="400">
                   <c:v>2.4</c:v>
                 </c:pt>
+                <c:pt idx="401">
+                  <c:v>2.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-76A1-234B-90EC-D392FD1727D5}"/>
+              <c16:uniqueId val="{00000001-063D-E64A-8246-A3FFBE163C60}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17954,17 +17973,31 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="502293648"/>
-        <c:axId val="497354048"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="502293648"/>
+        <c:axId val="812114160"/>
+        <c:axId val="866145648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="812114160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -17974,8 +18007,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -18002,15 +18035,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497354048"/>
+        <c:crossAx val="866145648"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="497354048"/>
+        <c:axId val="866145648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18036,8 +18066,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -18061,9 +18097,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502293648"/>
+        <c:crossAx val="812114160"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -25278,7 +25314,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -25305,8 +25341,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -25386,11 +25422,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -25401,11 +25432,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -25417,7 +25443,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -25437,9 +25463,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -25452,10 +25475,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -25495,22 +25518,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -25615,8 +25639,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -25748,19 +25772,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -25774,6 +25799,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -26952,23 +26988,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5609EE-98C6-FD1A-370E-3F0AA0072A16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE0754B3-FE26-5E62-3E82-81B32113ECAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37183,3245 +37219,4857 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBF946D-D396-5244-82E8-44B789B50EBE}">
-  <dimension ref="A1:B405"/>
+  <dimension ref="A1:C405"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1214</v>
       </c>
       <c r="B2">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="2">
+        <f>_xlfn.NUMBERVALUE(MID(A2,7,6))</f>
+        <v>40.238999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1215</v>
       </c>
       <c r="B3">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C66" si="0">_xlfn.NUMBERVALUE(MID(A3,7,6))</f>
+        <v>40.276000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1216</v>
       </c>
       <c r="B4">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>40.311999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1217</v>
       </c>
       <c r="B5">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>40.387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1218</v>
       </c>
       <c r="B6">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>40.424999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>1219</v>
       </c>
       <c r="B7">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>40.463000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1220</v>
       </c>
       <c r="B8">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>40.537999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1221</v>
       </c>
       <c r="B9">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>40.576000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1222</v>
       </c>
       <c r="B10">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>40.648000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>1223</v>
       </c>
       <c r="B11">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>40.683999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>1224</v>
       </c>
       <c r="B12">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>40.716999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>1225</v>
       </c>
       <c r="B13">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>40.784999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>1226</v>
       </c>
       <c r="B14">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>40.819000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>1227</v>
       </c>
       <c r="B15">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>40.890999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>1228</v>
       </c>
       <c r="B16">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>40.923999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1229</v>
       </c>
       <c r="B17">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>40.960999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>1230</v>
       </c>
       <c r="B18">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>41.033000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>1231</v>
       </c>
       <c r="B19">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>41.069000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>1232</v>
       </c>
       <c r="B20">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>41.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>1233</v>
       </c>
       <c r="B21">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>41.174999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>1234</v>
       </c>
       <c r="B22">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>41.21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>1235</v>
       </c>
       <c r="B23">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>41.281999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>1236</v>
       </c>
       <c r="B24">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>41.319000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>1237</v>
       </c>
       <c r="B25">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>41.392000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>1238</v>
       </c>
       <c r="B26">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>41.426000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>1239</v>
       </c>
       <c r="B27">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>41.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>1240</v>
       </c>
       <c r="B28">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>41.526000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>1241</v>
       </c>
       <c r="B29">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>41.593000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1242</v>
       </c>
       <c r="B30">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>41.625999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>1243</v>
       </c>
       <c r="B31">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>41.66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>1244</v>
       </c>
       <c r="B32">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>41.731999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>1245</v>
       </c>
       <c r="B33">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>41.765999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>1246</v>
       </c>
       <c r="B34">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>41.837000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>1247</v>
       </c>
       <c r="B35">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>41.875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>1248</v>
       </c>
       <c r="B36">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>41.942</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>1249</v>
       </c>
       <c r="B37">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>41.975999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>1250</v>
       </c>
       <c r="B38">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>42.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>1251</v>
       </c>
       <c r="B39">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>42.079000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>1252</v>
       </c>
       <c r="B40">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>42.116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>1253</v>
       </c>
       <c r="B41">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>42.186999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>1254</v>
       </c>
       <c r="B42">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>42.223999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>1255</v>
       </c>
       <c r="B43">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>42.293999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>1256</v>
       </c>
       <c r="B44">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>42.331000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>1257</v>
       </c>
       <c r="B45">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>42.368000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>1258</v>
       </c>
       <c r="B46">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>42.439</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>1259</v>
       </c>
       <c r="B47">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>42.473999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>1260</v>
       </c>
       <c r="B48">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>42.542999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>1261</v>
       </c>
       <c r="B49">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>42.576000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>1262</v>
       </c>
       <c r="B50">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>42.643999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>1263</v>
       </c>
       <c r="B51">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>42.682000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>1264</v>
       </c>
       <c r="B52">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>42.716000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>1265</v>
       </c>
       <c r="B53">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>42.786000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>1266</v>
       </c>
       <c r="B54">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>42.82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>1267</v>
       </c>
       <c r="B55">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>42.892000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>1268</v>
       </c>
       <c r="B56">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" s="2">
+        <f t="shared" si="0"/>
+        <v>42.926000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>1269</v>
       </c>
       <c r="B57">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" s="2">
+        <f t="shared" si="0"/>
+        <v>42.993000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>1270</v>
       </c>
       <c r="B58">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" s="2">
+        <f t="shared" si="0"/>
+        <v>43.027000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1271</v>
       </c>
       <c r="B59">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" s="2">
+        <f t="shared" si="0"/>
+        <v>43.093000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>1272</v>
       </c>
       <c r="B60">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" s="2">
+        <f t="shared" si="0"/>
+        <v>43.128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>1273</v>
       </c>
       <c r="B61">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" s="2">
+        <f t="shared" si="0"/>
+        <v>43.165999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1274</v>
       </c>
       <c r="B62">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" s="2">
+        <f t="shared" si="0"/>
+        <v>43.235999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>1275</v>
       </c>
       <c r="B63">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63" s="2">
+        <f t="shared" si="0"/>
+        <v>43.274000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>1276</v>
       </c>
       <c r="B64">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" s="2">
+        <f t="shared" si="0"/>
+        <v>43.311999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>1277</v>
       </c>
       <c r="B65">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" s="2">
+        <f t="shared" si="0"/>
+        <v>43.378999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>1278</v>
       </c>
       <c r="B66">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66" s="2">
+        <f t="shared" si="0"/>
+        <v>43.415999999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>1279</v>
       </c>
       <c r="B67">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67" s="2">
+        <f t="shared" ref="C67:C130" si="1">_xlfn.NUMBERVALUE(MID(A67,7,6))</f>
+        <v>43.488</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>1280</v>
       </c>
       <c r="B68">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" s="2">
+        <f t="shared" si="1"/>
+        <v>43.521000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>1281</v>
       </c>
       <c r="B69">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69" s="2">
+        <f t="shared" si="1"/>
+        <v>43.588999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>1282</v>
       </c>
       <c r="B70">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70" s="2">
+        <f t="shared" si="1"/>
+        <v>43.622</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>1283</v>
       </c>
       <c r="B71">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71" s="2">
+        <f t="shared" si="1"/>
+        <v>43.69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>1284</v>
       </c>
       <c r="B72">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72" s="2">
+        <f t="shared" si="1"/>
+        <v>43.722999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>1285</v>
       </c>
       <c r="B73">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73" s="2">
+        <f t="shared" si="1"/>
+        <v>43.790999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>1286</v>
       </c>
       <c r="B74">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74" s="2">
+        <f t="shared" si="1"/>
+        <v>43.825000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>1287</v>
       </c>
       <c r="B75">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75" s="2">
+        <f t="shared" si="1"/>
+        <v>43.893999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>1288</v>
       </c>
       <c r="B76">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76" s="2">
+        <f t="shared" si="1"/>
+        <v>43.927</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="B77">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77" s="2">
+        <f t="shared" si="1"/>
+        <v>43.966000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>1290</v>
       </c>
       <c r="B78">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78" s="2">
+        <f t="shared" si="1"/>
+        <v>44.034999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>1291</v>
       </c>
       <c r="B79">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79" s="2">
+        <f t="shared" si="1"/>
+        <v>44.069000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>1292</v>
       </c>
       <c r="B80">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80" s="2">
+        <f t="shared" si="1"/>
+        <v>44.140999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>1293</v>
       </c>
       <c r="B81">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81" s="2">
+        <f t="shared" si="1"/>
+        <v>44.177999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>1294</v>
       </c>
       <c r="B82">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82" s="2">
+        <f t="shared" si="1"/>
+        <v>44.215000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>1295</v>
       </c>
       <c r="B83">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83" s="2">
+        <f t="shared" si="1"/>
+        <v>44.29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>1296</v>
       </c>
       <c r="B84">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84" s="2">
+        <f t="shared" si="1"/>
+        <v>44.325000000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>1297</v>
       </c>
       <c r="B85">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85" s="2">
+        <f t="shared" si="1"/>
+        <v>44.395000000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>1298</v>
       </c>
       <c r="B86">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86" s="2">
+        <f t="shared" si="1"/>
+        <v>44.427999999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>1299</v>
       </c>
       <c r="B87">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87" s="2">
+        <f t="shared" si="1"/>
+        <v>44.466000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>1300</v>
       </c>
       <c r="B88">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88" s="2">
+        <f t="shared" si="1"/>
+        <v>44.54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>1301</v>
       </c>
       <c r="B89">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89" s="2">
+        <f t="shared" si="1"/>
+        <v>44.575000000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>1302</v>
       </c>
       <c r="B90">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90" s="2">
+        <f t="shared" si="1"/>
+        <v>44.643999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>1303</v>
       </c>
       <c r="B91">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91" s="2">
+        <f t="shared" si="1"/>
+        <v>44.677999999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>1304</v>
       </c>
       <c r="B92">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92" s="2">
+        <f t="shared" si="1"/>
+        <v>44.715000000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>1305</v>
       </c>
       <c r="B93">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93" s="2">
+        <f t="shared" si="1"/>
+        <v>44.784999999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>1306</v>
       </c>
       <c r="B94">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94" s="2">
+        <f t="shared" si="1"/>
+        <v>44.82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>1307</v>
       </c>
       <c r="B95">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95" s="2">
+        <f t="shared" si="1"/>
+        <v>44.890999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>1308</v>
       </c>
       <c r="B96">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96" s="2">
+        <f t="shared" si="1"/>
+        <v>44.923999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>1309</v>
       </c>
       <c r="B97">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97" s="2">
+        <f t="shared" si="1"/>
+        <v>44.994</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>1310</v>
       </c>
       <c r="B98">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98" s="2">
+        <f t="shared" si="1"/>
+        <v>45.027000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>1311</v>
       </c>
       <c r="B99">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99" s="2">
+        <f t="shared" si="1"/>
+        <v>45.095999999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>1312</v>
       </c>
       <c r="B100">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100" s="2">
+        <f t="shared" si="1"/>
+        <v>45.131999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>1313</v>
       </c>
       <c r="B101">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101" s="2">
+        <f t="shared" si="1"/>
+        <v>45.168999999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>1314</v>
       </c>
       <c r="B102">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102" s="2">
+        <f t="shared" si="1"/>
+        <v>45.244999999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>1315</v>
       </c>
       <c r="B103">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103" s="2">
+        <f t="shared" si="1"/>
+        <v>45.283000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>1316</v>
       </c>
       <c r="B104">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104" s="2">
+        <f t="shared" si="1"/>
+        <v>45.317</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>1317</v>
       </c>
       <c r="B105">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105" s="2">
+        <f t="shared" si="1"/>
+        <v>45.386000000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>1318</v>
       </c>
       <c r="B106">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106" s="2">
+        <f t="shared" si="1"/>
+        <v>45.418999999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>1319</v>
       </c>
       <c r="B107">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107" s="2">
+        <f t="shared" si="1"/>
+        <v>45.493000000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>1320</v>
       </c>
       <c r="B108">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108" s="2">
+        <f t="shared" si="1"/>
+        <v>45.527000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>1321</v>
       </c>
       <c r="B109">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109" s="2">
+        <f t="shared" si="1"/>
+        <v>45.594999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>1322</v>
       </c>
       <c r="B110">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110" s="2">
+        <f t="shared" si="1"/>
+        <v>45.634</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>1323</v>
       </c>
       <c r="B111">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C111" s="2">
+        <f t="shared" si="1"/>
+        <v>45.668999999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>1324</v>
       </c>
       <c r="B112">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112" s="2">
+        <f t="shared" si="1"/>
+        <v>45.743000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>1325</v>
       </c>
       <c r="B113">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C113" s="2">
+        <f t="shared" si="1"/>
+        <v>45.777000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>1326</v>
       </c>
       <c r="B114">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114" s="2">
+        <f t="shared" si="1"/>
+        <v>45.813000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>1327</v>
       </c>
       <c r="B115">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C115" s="2">
+        <f t="shared" si="1"/>
+        <v>45.886000000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>1328</v>
       </c>
       <c r="B116">
         <v>2.44</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116" s="2">
+        <f t="shared" si="1"/>
+        <v>45.92</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>1329</v>
       </c>
       <c r="B117">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C117" s="2">
+        <f t="shared" si="1"/>
+        <v>45.991</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>1330</v>
       </c>
       <c r="B118">
         <v>2.46</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118" s="2">
+        <f t="shared" si="1"/>
+        <v>46.024999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>1331</v>
       </c>
       <c r="B119">
         <v>2.4700000000000002</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C119" s="2">
+        <f t="shared" si="1"/>
+        <v>46.094000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>1332</v>
       </c>
       <c r="B120">
         <v>2.4700000000000002</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120" s="2">
+        <f t="shared" si="1"/>
+        <v>46.127000000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>1333</v>
       </c>
       <c r="B121">
         <v>2.4700000000000002</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C121" s="2">
+        <f t="shared" si="1"/>
+        <v>46.192999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>1334</v>
       </c>
       <c r="B122">
         <v>2.46</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C122" s="2">
+        <f t="shared" si="1"/>
+        <v>46.226999999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>1335</v>
       </c>
       <c r="B123">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C123" s="2">
+        <f t="shared" si="1"/>
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>1336</v>
       </c>
       <c r="B124">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C124" s="2">
+        <f t="shared" si="1"/>
+        <v>46.335000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>1337</v>
       </c>
       <c r="B125">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C125" s="2">
+        <f t="shared" si="1"/>
+        <v>46.37</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>1338</v>
       </c>
       <c r="B126">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126" s="2">
+        <f t="shared" si="1"/>
+        <v>46.438000000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>1339</v>
       </c>
       <c r="B127">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C127" s="2">
+        <f t="shared" si="1"/>
+        <v>46.472000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>1340</v>
       </c>
       <c r="B128">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C128" s="2">
+        <f t="shared" si="1"/>
+        <v>46.54</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>1341</v>
       </c>
       <c r="B129">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C129" s="2">
+        <f t="shared" si="1"/>
+        <v>46.576999999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>1342</v>
       </c>
       <c r="B130">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C130" s="2">
+        <f t="shared" si="1"/>
+        <v>46.643999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>1343</v>
       </c>
       <c r="B131">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C131" s="2">
+        <f t="shared" ref="C131:C194" si="2">_xlfn.NUMBERVALUE(MID(A131,7,6))</f>
+        <v>46.677</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>1344</v>
       </c>
       <c r="B132">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C132" s="2">
+        <f t="shared" si="2"/>
+        <v>46.746000000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="B133">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C133" s="2">
+        <f t="shared" si="2"/>
+        <v>46.783999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>1346</v>
       </c>
       <c r="B134">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C134" s="2">
+        <f t="shared" si="2"/>
+        <v>46.817999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>1347</v>
       </c>
       <c r="B135">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C135" s="2">
+        <f t="shared" si="2"/>
+        <v>46.886000000000003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>1348</v>
       </c>
       <c r="B136">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C136" s="2">
+        <f t="shared" si="2"/>
+        <v>46.923999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>1349</v>
       </c>
       <c r="B137">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C137" s="2">
+        <f t="shared" si="2"/>
+        <v>46.994</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>1350</v>
       </c>
       <c r="B138">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138" s="2">
+        <f t="shared" si="2"/>
+        <v>47.027999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>1351</v>
       </c>
       <c r="B139">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C139" s="2">
+        <f t="shared" si="2"/>
+        <v>47.094999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>1352</v>
       </c>
       <c r="B140">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C140" s="2">
+        <f t="shared" si="2"/>
+        <v>47.128999999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>1353</v>
       </c>
       <c r="B141">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C141" s="2">
+        <f t="shared" si="2"/>
+        <v>47.165999999999997</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>1354</v>
       </c>
       <c r="B142">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C142" s="2">
+        <f t="shared" si="2"/>
+        <v>47.234999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>1355</v>
       </c>
       <c r="B143">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C143" s="2">
+        <f t="shared" si="2"/>
+        <v>47.27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>1356</v>
       </c>
       <c r="B144">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C144" s="2">
+        <f t="shared" si="2"/>
+        <v>47.344000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>1357</v>
       </c>
       <c r="B145">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C145" s="2">
+        <f t="shared" si="2"/>
+        <v>47.377000000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>1358</v>
       </c>
       <c r="B146">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C146" s="2">
+        <f t="shared" si="2"/>
+        <v>47.444000000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>1359</v>
       </c>
       <c r="B147">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C147" s="2">
+        <f t="shared" si="2"/>
+        <v>47.481000000000002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>1360</v>
       </c>
       <c r="B148">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C148" s="2">
+        <f t="shared" si="2"/>
+        <v>47.518999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>1361</v>
       </c>
       <c r="B149">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C149" s="2">
+        <f t="shared" si="2"/>
+        <v>47.585999999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>1362</v>
       </c>
       <c r="B150">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C150" s="2">
+        <f t="shared" si="2"/>
+        <v>47.622</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>1363</v>
       </c>
       <c r="B151">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C151" s="2">
+        <f t="shared" si="2"/>
+        <v>47.694000000000003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>1364</v>
       </c>
       <c r="B152">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C152" s="2">
+        <f t="shared" si="2"/>
+        <v>47.728999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>1365</v>
       </c>
       <c r="B153">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C153" s="2">
+        <f t="shared" si="2"/>
+        <v>47.762999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>1366</v>
       </c>
       <c r="B154">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C154" s="2">
+        <f t="shared" si="2"/>
+        <v>47.835999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>1367</v>
       </c>
       <c r="B155">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C155" s="2">
+        <f t="shared" si="2"/>
+        <v>47.872</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>1368</v>
       </c>
       <c r="B156">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C156" s="2">
+        <f t="shared" si="2"/>
+        <v>47.944000000000003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>1369</v>
       </c>
       <c r="B157">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C157" s="2">
+        <f t="shared" si="2"/>
+        <v>47.978999999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>1370</v>
       </c>
       <c r="B158">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C158" s="2">
+        <f t="shared" si="2"/>
+        <v>48.015000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>1371</v>
       </c>
       <c r="B159">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C159" s="2">
+        <f t="shared" si="2"/>
+        <v>48.091000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>1372</v>
       </c>
       <c r="B160">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160" s="2">
+        <f t="shared" si="2"/>
+        <v>48.128</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>1373</v>
       </c>
       <c r="B161">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C161" s="2">
+        <f t="shared" si="2"/>
+        <v>48.197000000000003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>1374</v>
       </c>
       <c r="B162">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162" s="2">
+        <f t="shared" si="2"/>
+        <v>48.234999999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>1375</v>
       </c>
       <c r="B163">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C163" s="2">
+        <f t="shared" si="2"/>
+        <v>48.27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>1376</v>
       </c>
       <c r="B164">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C164" s="2">
+        <f t="shared" si="2"/>
+        <v>48.344000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>1377</v>
       </c>
       <c r="B165">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C165" s="2">
+        <f t="shared" si="2"/>
+        <v>48.377000000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>1378</v>
       </c>
       <c r="B166">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C166" s="2">
+        <f t="shared" si="2"/>
+        <v>48.414999999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>1379</v>
       </c>
       <c r="B167">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C167" s="2">
+        <f t="shared" si="2"/>
+        <v>48.481999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>1380</v>
       </c>
       <c r="B168">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C168" s="2">
+        <f t="shared" si="2"/>
+        <v>48.515999999999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>1381</v>
       </c>
       <c r="B169">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C169" s="2">
+        <f t="shared" si="2"/>
+        <v>48.59</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>1382</v>
       </c>
       <c r="B170">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C170" s="2">
+        <f t="shared" si="2"/>
+        <v>48.627000000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>1383</v>
       </c>
       <c r="B171">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C171" s="2">
+        <f t="shared" si="2"/>
+        <v>48.695999999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>1384</v>
       </c>
       <c r="B172">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C172" s="2">
+        <f t="shared" si="2"/>
+        <v>48.731000000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>1385</v>
       </c>
       <c r="B173">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C173" s="2">
+        <f t="shared" si="2"/>
+        <v>48.765999999999998</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>1386</v>
       </c>
       <c r="B174">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C174" s="2">
+        <f t="shared" si="2"/>
+        <v>48.838999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>1387</v>
       </c>
       <c r="B175">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C175" s="2">
+        <f t="shared" si="2"/>
+        <v>48.877000000000002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>1388</v>
       </c>
       <c r="B176">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C176" s="2">
+        <f t="shared" si="2"/>
+        <v>48.948</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>1389</v>
       </c>
       <c r="B177">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C177" s="2">
+        <f t="shared" si="2"/>
+        <v>48.981999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>1390</v>
       </c>
       <c r="B178">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C178" s="2">
+        <f t="shared" si="2"/>
+        <v>49.015000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>1391</v>
       </c>
       <c r="B179">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C179" s="2">
+        <f t="shared" si="2"/>
+        <v>49.085999999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>1392</v>
       </c>
       <c r="B180">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C180" s="2">
+        <f t="shared" si="2"/>
+        <v>49.12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>1393</v>
       </c>
       <c r="B181">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C181" s="2">
+        <f t="shared" si="2"/>
+        <v>49.189</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>1394</v>
       </c>
       <c r="B182">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C182" s="2">
+        <f t="shared" si="2"/>
+        <v>49.226999999999997</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>1395</v>
       </c>
       <c r="B183">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C183" s="2">
+        <f t="shared" si="2"/>
+        <v>49.293999999999997</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>1396</v>
       </c>
       <c r="B184">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C184" s="2">
+        <f t="shared" si="2"/>
+        <v>49.326999999999998</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>1397</v>
       </c>
       <c r="B185">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C185" s="2">
+        <f t="shared" si="2"/>
+        <v>49.363999999999997</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>1398</v>
       </c>
       <c r="B186">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C186" s="2">
+        <f t="shared" si="2"/>
+        <v>49.439</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>1399</v>
       </c>
       <c r="B187">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C187" s="2">
+        <f t="shared" si="2"/>
+        <v>49.472999999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>1400</v>
       </c>
       <c r="B188">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C188" s="2">
+        <f t="shared" si="2"/>
+        <v>49.54</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>1401</v>
       </c>
       <c r="B189">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C189" s="2">
+        <f t="shared" si="2"/>
+        <v>49.579000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="B190">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C190" s="2">
+        <f t="shared" si="2"/>
+        <v>49.615000000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>1403</v>
       </c>
       <c r="B191">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C191" s="2">
+        <f t="shared" si="2"/>
+        <v>49.686999999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>1404</v>
       </c>
       <c r="B192">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C192" s="2">
+        <f t="shared" si="2"/>
+        <v>49.72</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>1405</v>
       </c>
       <c r="B193">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C193" s="2">
+        <f t="shared" si="2"/>
+        <v>49.795000000000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>1406</v>
       </c>
       <c r="B194">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C194" s="2">
+        <f t="shared" si="2"/>
+        <v>49.83</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>1407</v>
       </c>
       <c r="B195">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C195" s="2">
+        <f t="shared" ref="C195:C258" si="3">_xlfn.NUMBERVALUE(MID(A195,7,6))</f>
+        <v>49.868000000000002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>1408</v>
       </c>
       <c r="B196">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C196" s="2">
+        <f t="shared" si="3"/>
+        <v>49.941000000000003</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="B197">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C197" s="2">
+        <f t="shared" si="3"/>
+        <v>49.973999999999997</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>1410</v>
       </c>
       <c r="B198">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C198" s="2">
+        <f t="shared" si="3"/>
+        <v>50.043999999999997</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>1411</v>
       </c>
       <c r="B199">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C199" s="2">
+        <f t="shared" si="3"/>
+        <v>50.082000000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>1412</v>
       </c>
       <c r="B200">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C200" s="2">
+        <f t="shared" si="3"/>
+        <v>50.115000000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>1413</v>
       </c>
       <c r="B201">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C201" s="2">
+        <f t="shared" si="3"/>
+        <v>50.19</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>1414</v>
       </c>
       <c r="B202">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C202" s="2">
+        <f t="shared" si="3"/>
+        <v>50.223999999999997</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>1415</v>
       </c>
       <c r="B203">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C203" s="2">
+        <f t="shared" si="3"/>
+        <v>50.293999999999997</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>1416</v>
       </c>
       <c r="B204">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C204" s="2">
+        <f t="shared" si="3"/>
+        <v>50.326999999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>1417</v>
       </c>
       <c r="B205">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C205" s="2">
+        <f t="shared" si="3"/>
+        <v>50.393999999999998</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>1418</v>
       </c>
       <c r="B206">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C206" s="2">
+        <f t="shared" si="3"/>
+        <v>50.427999999999997</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>1419</v>
       </c>
       <c r="B207">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C207" s="2">
+        <f t="shared" si="3"/>
+        <v>50.497999999999998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>1420</v>
       </c>
       <c r="B208">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C208" s="2">
+        <f t="shared" si="3"/>
+        <v>50.530999999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>1421</v>
       </c>
       <c r="B209">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C209" s="2">
+        <f t="shared" si="3"/>
+        <v>50.564</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>1422</v>
       </c>
       <c r="B210">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C210" s="2">
+        <f t="shared" si="3"/>
+        <v>50.637</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="B211">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C211" s="2">
+        <f t="shared" si="3"/>
+        <v>50.673999999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>1424</v>
       </c>
       <c r="B212">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C212" s="2">
+        <f t="shared" si="3"/>
+        <v>50.744999999999997</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>1425</v>
       </c>
       <c r="B213">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C213" s="2">
+        <f t="shared" si="3"/>
+        <v>50.780999999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>1426</v>
       </c>
       <c r="B214">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C214" s="2">
+        <f t="shared" si="3"/>
+        <v>50.816000000000003</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="B215">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C215" s="2">
+        <f t="shared" si="3"/>
+        <v>50.887</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="B216">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C216" s="2">
+        <f t="shared" si="3"/>
+        <v>50.921999999999997</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="B217">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C217" s="2">
+        <f t="shared" si="3"/>
+        <v>50.99</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>1430</v>
       </c>
       <c r="B218">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C218" s="2">
+        <f t="shared" si="3"/>
+        <v>51.024000000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="B219">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C219" s="2">
+        <f t="shared" si="3"/>
+        <v>51.095999999999997</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="B220">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C220" s="2">
+        <f t="shared" si="3"/>
+        <v>51.13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>1433</v>
       </c>
       <c r="B221">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C221" s="2">
+        <f t="shared" si="3"/>
+        <v>51.197000000000003</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>1434</v>
       </c>
       <c r="B222">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C222" s="2">
+        <f t="shared" si="3"/>
+        <v>51.23</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>1435</v>
       </c>
       <c r="B223">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C223" s="2">
+        <f t="shared" si="3"/>
+        <v>51.298000000000002</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>1436</v>
       </c>
       <c r="B224">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C224" s="2">
+        <f t="shared" si="3"/>
+        <v>51.332000000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>1437</v>
       </c>
       <c r="B225">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C225" s="2">
+        <f t="shared" si="3"/>
+        <v>51.369</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>1438</v>
       </c>
       <c r="B226">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C226" s="2">
+        <f t="shared" si="3"/>
+        <v>51.44</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>1439</v>
       </c>
       <c r="B227">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C227" s="2">
+        <f t="shared" si="3"/>
+        <v>51.478000000000002</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>1440</v>
       </c>
       <c r="B228">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C228" s="2">
+        <f t="shared" si="3"/>
+        <v>51.515999999999998</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>1441</v>
       </c>
       <c r="B229">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C229" s="2">
+        <f t="shared" si="3"/>
+        <v>51.584000000000003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>1442</v>
       </c>
       <c r="B230">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C230" s="2">
+        <f t="shared" si="3"/>
+        <v>51.616999999999997</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>1443</v>
       </c>
       <c r="B231">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C231" s="2">
+        <f t="shared" si="3"/>
+        <v>51.683999999999997</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>1444</v>
       </c>
       <c r="B232">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C232" s="2">
+        <f t="shared" si="3"/>
+        <v>51.720999999999997</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>1445</v>
       </c>
       <c r="B233">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C233" s="2">
+        <f t="shared" si="3"/>
+        <v>51.793999999999997</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>1446</v>
       </c>
       <c r="B234">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C234" s="2">
+        <f t="shared" si="3"/>
+        <v>51.828000000000003</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>1447</v>
       </c>
       <c r="B235">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C235" s="2">
+        <f t="shared" si="3"/>
+        <v>51.899000000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>1448</v>
       </c>
       <c r="B236">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C236" s="2">
+        <f t="shared" si="3"/>
+        <v>51.936999999999998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>1449</v>
       </c>
       <c r="B237">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C237" s="2">
+        <f t="shared" si="3"/>
+        <v>51.970999999999997</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>1450</v>
       </c>
       <c r="B238">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C238" s="2">
+        <f t="shared" si="3"/>
+        <v>52.039000000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>1451</v>
       </c>
       <c r="B239">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C239" s="2">
+        <f t="shared" si="3"/>
+        <v>52.076999999999998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>1452</v>
       </c>
       <c r="B240">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C240" s="2">
+        <f t="shared" si="3"/>
+        <v>52.143999999999998</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>1453</v>
       </c>
       <c r="B241">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C241" s="2">
+        <f t="shared" si="3"/>
+        <v>52.177999999999997</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>1454</v>
       </c>
       <c r="B242">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C242" s="2">
+        <f t="shared" si="3"/>
+        <v>52.215000000000003</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>1455</v>
       </c>
       <c r="B243">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C243" s="2">
+        <f t="shared" si="3"/>
+        <v>52.283999999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>1456</v>
       </c>
       <c r="B244">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C244" s="2">
+        <f t="shared" si="3"/>
+        <v>52.32</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>1457</v>
       </c>
       <c r="B245">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C245" s="2">
+        <f t="shared" si="3"/>
+        <v>52.39</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>1458</v>
       </c>
       <c r="B246">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C246" s="2">
+        <f t="shared" si="3"/>
+        <v>52.427</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>1459</v>
       </c>
       <c r="B247">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C247" s="2">
+        <f t="shared" si="3"/>
+        <v>52.502000000000002</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>1460</v>
       </c>
       <c r="B248">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C248" s="2">
+        <f t="shared" si="3"/>
+        <v>52.536000000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>1461</v>
       </c>
       <c r="B249">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C249" s="2">
+        <f t="shared" si="3"/>
+        <v>52.570999999999998</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>1462</v>
       </c>
       <c r="B250">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C250" s="2">
+        <f t="shared" si="3"/>
+        <v>52.642000000000003</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>1463</v>
       </c>
       <c r="B251">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C251" s="2">
+        <f t="shared" si="3"/>
+        <v>52.677</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>1464</v>
       </c>
       <c r="B252">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C252" s="2">
+        <f t="shared" si="3"/>
+        <v>52.753</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>1465</v>
       </c>
       <c r="B253">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C253" s="2">
+        <f t="shared" si="3"/>
+        <v>52.792000000000002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>1466</v>
       </c>
       <c r="B254">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C254" s="2">
+        <f t="shared" si="3"/>
+        <v>52.828000000000003</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>1467</v>
       </c>
       <c r="B255">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C255" s="2">
+        <f t="shared" si="3"/>
+        <v>52.895000000000003</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>1468</v>
       </c>
       <c r="B256">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C256" s="2">
+        <f t="shared" si="3"/>
+        <v>52.929000000000002</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>1469</v>
       </c>
       <c r="B257">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C257" s="2">
+        <f t="shared" si="3"/>
+        <v>52.996000000000002</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>1470</v>
       </c>
       <c r="B258">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C258" s="2">
+        <f t="shared" si="3"/>
+        <v>53.033000000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>1471</v>
       </c>
       <c r="B259">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C259" s="2">
+        <f t="shared" ref="C259:C322" si="4">_xlfn.NUMBERVALUE(MID(A259,7,6))</f>
+        <v>53.067999999999998</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>1472</v>
       </c>
       <c r="B260">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C260" s="2">
+        <f t="shared" si="4"/>
+        <v>53.14</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>1473</v>
       </c>
       <c r="B261">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C261" s="2">
+        <f t="shared" si="4"/>
+        <v>53.173999999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>1474</v>
       </c>
       <c r="B262">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C262" s="2">
+        <f t="shared" si="4"/>
+        <v>53.243000000000002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>1475</v>
       </c>
       <c r="B263">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C263" s="2">
+        <f t="shared" si="4"/>
+        <v>53.277000000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>1476</v>
       </c>
       <c r="B264">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C264" s="2">
+        <f t="shared" si="4"/>
+        <v>53.35</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>1477</v>
       </c>
       <c r="B265">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C265" s="2">
+        <f t="shared" si="4"/>
+        <v>53.383000000000003</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>1478</v>
       </c>
       <c r="B266">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C266" s="2">
+        <f t="shared" si="4"/>
+        <v>53.415999999999997</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>1479</v>
       </c>
       <c r="B267">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C267" s="2">
+        <f t="shared" si="4"/>
+        <v>53.488</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>1480</v>
       </c>
       <c r="B268">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C268" s="2">
+        <f t="shared" si="4"/>
+        <v>53.521999999999998</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>1481</v>
       </c>
       <c r="B269">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C269" s="2">
+        <f t="shared" si="4"/>
+        <v>53.594999999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>1482</v>
       </c>
       <c r="B270">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C270" s="2">
+        <f t="shared" si="4"/>
+        <v>53.631</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>1483</v>
       </c>
       <c r="B271">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C271" s="2">
+        <f t="shared" si="4"/>
+        <v>53.664999999999999</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>1484</v>
       </c>
       <c r="B272">
         <v>2.44</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C272" s="2">
+        <f t="shared" si="4"/>
+        <v>53.741</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>1485</v>
       </c>
       <c r="B273">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C273" s="2">
+        <f t="shared" si="4"/>
+        <v>53.774999999999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>1486</v>
       </c>
       <c r="B274">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C274" s="2">
+        <f t="shared" si="4"/>
+        <v>53.844999999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>1487</v>
       </c>
       <c r="B275">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C275" s="2">
+        <f t="shared" si="4"/>
+        <v>53.881</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>1488</v>
       </c>
       <c r="B276">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C276" s="2">
+        <f t="shared" si="4"/>
+        <v>53.915999999999997</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>1489</v>
       </c>
       <c r="B277">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C277" s="2">
+        <f t="shared" si="4"/>
+        <v>53.988</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>1490</v>
       </c>
       <c r="B278">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C278" s="2">
+        <f t="shared" si="4"/>
+        <v>54.021999999999998</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>1491</v>
       </c>
       <c r="B279">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C279" s="2">
+        <f t="shared" si="4"/>
+        <v>54.094000000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>1492</v>
       </c>
       <c r="B280">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C280" s="2">
+        <f t="shared" si="4"/>
+        <v>54.128</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>1493</v>
       </c>
       <c r="B281">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C281" s="2">
+        <f t="shared" si="4"/>
+        <v>54.194000000000003</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>1494</v>
       </c>
       <c r="B282">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C282" s="2">
+        <f t="shared" si="4"/>
+        <v>54.23</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>1495</v>
       </c>
       <c r="B283">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C283" s="2">
+        <f t="shared" si="4"/>
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>1496</v>
       </c>
       <c r="B284">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C284" s="2">
+        <f t="shared" si="4"/>
+        <v>54.334000000000003</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>1497</v>
       </c>
       <c r="B285">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C285" s="2">
+        <f t="shared" si="4"/>
+        <v>54.369</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>1498</v>
       </c>
       <c r="B286">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C286" s="2">
+        <f t="shared" si="4"/>
+        <v>54.442</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>1499</v>
       </c>
       <c r="B287">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C287" s="2">
+        <f t="shared" si="4"/>
+        <v>54.478999999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>1500</v>
       </c>
       <c r="B288">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C288" s="2">
+        <f t="shared" si="4"/>
+        <v>54.548999999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>1501</v>
       </c>
       <c r="B289">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C289" s="2">
+        <f t="shared" si="4"/>
+        <v>54.587000000000003</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>1502</v>
       </c>
       <c r="B290">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C290" s="2">
+        <f t="shared" si="4"/>
+        <v>54.62</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>1503</v>
       </c>
       <c r="B291">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C291" s="2">
+        <f t="shared" si="4"/>
+        <v>54.692</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>1504</v>
       </c>
       <c r="B292">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C292" s="2">
+        <f t="shared" si="4"/>
+        <v>54.728999999999999</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>1505</v>
       </c>
       <c r="B293">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C293" s="2">
+        <f t="shared" si="4"/>
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>1506</v>
       </c>
       <c r="B294">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C294" s="2">
+        <f t="shared" si="4"/>
+        <v>54.838000000000001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>1507</v>
       </c>
       <c r="B295">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C295" s="2">
+        <f t="shared" si="4"/>
+        <v>54.872</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>1508</v>
       </c>
       <c r="B296">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C296" s="2">
+        <f t="shared" si="4"/>
+        <v>54.947000000000003</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>1509</v>
       </c>
       <c r="B297">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C297" s="2">
+        <f t="shared" si="4"/>
+        <v>54.982999999999997</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>1510</v>
       </c>
       <c r="B298">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C298" s="2">
+        <f t="shared" si="4"/>
+        <v>55.021999999999998</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>1511</v>
       </c>
       <c r="B299">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C299" s="2">
+        <f t="shared" si="4"/>
+        <v>55.09</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>1512</v>
       </c>
       <c r="B300">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C300" s="2">
+        <f t="shared" si="4"/>
+        <v>55.125999999999998</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>1513</v>
       </c>
       <c r="B301">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C301" s="2">
+        <f t="shared" si="4"/>
+        <v>55.194000000000003</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>1514</v>
       </c>
       <c r="B302">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C302" s="2">
+        <f t="shared" si="4"/>
+        <v>55.228000000000002</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>1515</v>
       </c>
       <c r="B303">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C303" s="2">
+        <f t="shared" si="4"/>
+        <v>55.295000000000002</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>1516</v>
       </c>
       <c r="B304">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C304" s="2">
+        <f t="shared" si="4"/>
+        <v>55.328000000000003</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>1517</v>
       </c>
       <c r="B305">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C305" s="2">
+        <f t="shared" si="4"/>
+        <v>55.393999999999998</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>1518</v>
       </c>
       <c r="B306">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C306" s="2">
+        <f t="shared" si="4"/>
+        <v>55.427999999999997</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>1519</v>
       </c>
       <c r="B307">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C307" s="2">
+        <f t="shared" si="4"/>
+        <v>55.499000000000002</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="B308">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C308" s="2">
+        <f t="shared" si="4"/>
+        <v>55.536999999999999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>1521</v>
       </c>
       <c r="B309">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C309" s="2">
+        <f t="shared" si="4"/>
+        <v>55.573</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>1522</v>
       </c>
       <c r="B310">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C310" s="2">
+        <f t="shared" si="4"/>
+        <v>55.642000000000003</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>1523</v>
       </c>
       <c r="B311">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C311" s="2">
+        <f t="shared" si="4"/>
+        <v>55.677999999999997</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>1524</v>
       </c>
       <c r="B312">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C312" s="2">
+        <f t="shared" si="4"/>
+        <v>55.749000000000002</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>1525</v>
       </c>
       <c r="B313">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C313" s="2">
+        <f t="shared" si="4"/>
+        <v>55.783000000000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>1526</v>
       </c>
       <c r="B314">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C314" s="2">
+        <f t="shared" si="4"/>
+        <v>55.817</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>1527</v>
       </c>
       <c r="B315">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C315" s="2">
+        <f t="shared" si="4"/>
+        <v>55.889000000000003</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>1528</v>
       </c>
       <c r="B316">
         <v>2.4700000000000002</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C316" s="2">
+        <f t="shared" si="4"/>
+        <v>55.924999999999997</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>1529</v>
       </c>
       <c r="B317">
         <v>2.4700000000000002</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C317" s="2">
+        <f t="shared" si="4"/>
+        <v>55.994999999999997</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>1530</v>
       </c>
       <c r="B318">
         <v>2.48</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C318" s="2">
+        <f t="shared" si="4"/>
+        <v>56.027999999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>1531</v>
       </c>
       <c r="B319">
         <v>2.48</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C319" s="2">
+        <f t="shared" si="4"/>
+        <v>56.094999999999999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>1532</v>
       </c>
       <c r="B320">
         <v>2.48</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C320" s="2">
+        <f t="shared" si="4"/>
+        <v>56.128</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>1533</v>
       </c>
       <c r="B321">
         <v>2.48</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C321" s="2">
+        <f t="shared" si="4"/>
+        <v>56.195</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>1534</v>
       </c>
       <c r="B322">
         <v>2.4700000000000002</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C322" s="2">
+        <f t="shared" si="4"/>
+        <v>56.228000000000002</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>1535</v>
       </c>
       <c r="B323">
         <v>2.46</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C323" s="2">
+        <f t="shared" ref="C323:C386" si="5">_xlfn.NUMBERVALUE(MID(A323,7,6))</f>
+        <v>56.295000000000002</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>1536</v>
       </c>
       <c r="B324">
         <v>2.46</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C324" s="2">
+        <f t="shared" si="5"/>
+        <v>56.329000000000001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>1537</v>
       </c>
       <c r="B325">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C325" s="2">
+        <f t="shared" si="5"/>
+        <v>56.396999999999998</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>1538</v>
       </c>
       <c r="B326">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C326" s="2">
+        <f t="shared" si="5"/>
+        <v>56.433</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>1539</v>
       </c>
       <c r="B327">
         <v>2.44</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C327" s="2">
+        <f t="shared" si="5"/>
+        <v>56.470999999999997</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>1540</v>
       </c>
       <c r="B328">
         <v>2.44</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C328" s="2">
+        <f t="shared" si="5"/>
+        <v>56.542999999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>1541</v>
       </c>
       <c r="B329">
         <v>2.44</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C329" s="2">
+        <f t="shared" si="5"/>
+        <v>56.576000000000001</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>1542</v>
       </c>
       <c r="B330">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C330" s="2">
+        <f t="shared" si="5"/>
+        <v>56.645000000000003</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>1543</v>
       </c>
       <c r="B331">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C331" s="2">
+        <f t="shared" si="5"/>
+        <v>56.677999999999997</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>1544</v>
       </c>
       <c r="B332">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C332" s="2">
+        <f t="shared" si="5"/>
+        <v>56.747999999999998</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>1545</v>
       </c>
       <c r="B333">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C333" s="2">
+        <f t="shared" si="5"/>
+        <v>56.784999999999997</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>1546</v>
       </c>
       <c r="B334">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C334" s="2">
+        <f t="shared" si="5"/>
+        <v>56.823</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>1547</v>
       </c>
       <c r="B335">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C335" s="2">
+        <f t="shared" si="5"/>
+        <v>56.893000000000001</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>1548</v>
       </c>
       <c r="B336">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C336" s="2">
+        <f t="shared" si="5"/>
+        <v>56.927</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>1549</v>
       </c>
       <c r="B337">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C337" s="2">
+        <f t="shared" si="5"/>
+        <v>56.999000000000002</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>1550</v>
       </c>
       <c r="B338">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C338" s="2">
+        <f t="shared" si="5"/>
+        <v>57.033000000000001</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>1551</v>
       </c>
       <c r="B339">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C339" s="2">
+        <f t="shared" si="5"/>
+        <v>57.069000000000003</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>1552</v>
       </c>
       <c r="B340">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C340" s="2">
+        <f t="shared" si="5"/>
+        <v>57.140999999999998</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>1553</v>
       </c>
       <c r="B341">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C341" s="2">
+        <f t="shared" si="5"/>
+        <v>57.177999999999997</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>1554</v>
       </c>
       <c r="B342">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C342" s="2">
+        <f t="shared" si="5"/>
+        <v>57.244999999999997</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>1555</v>
       </c>
       <c r="B343">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C343" s="2">
+        <f t="shared" si="5"/>
+        <v>57.277999999999999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>1556</v>
       </c>
       <c r="B344">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C344" s="2">
+        <f t="shared" si="5"/>
+        <v>57.344999999999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="B345">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C345" s="2">
+        <f t="shared" si="5"/>
+        <v>57.378</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>1558</v>
       </c>
       <c r="B346">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C346" s="2">
+        <f t="shared" si="5"/>
+        <v>57.448999999999998</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>1559</v>
       </c>
       <c r="B347">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C347" s="2">
+        <f t="shared" si="5"/>
+        <v>57.484999999999999</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>1560</v>
       </c>
       <c r="B348">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C348" s="2">
+        <f t="shared" si="5"/>
+        <v>57.523000000000003</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>1561</v>
       </c>
       <c r="B349">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C349" s="2">
+        <f t="shared" si="5"/>
+        <v>57.594999999999999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>1562</v>
       </c>
       <c r="B350">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C350" s="2">
+        <f t="shared" si="5"/>
+        <v>57.628</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>1563</v>
       </c>
       <c r="B351">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C351" s="2">
+        <f t="shared" si="5"/>
+        <v>57.701000000000001</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>1564</v>
       </c>
       <c r="B352">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C352" s="2">
+        <f t="shared" si="5"/>
+        <v>57.734999999999999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>1565</v>
       </c>
       <c r="B353">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C353" s="2">
+        <f t="shared" si="5"/>
+        <v>57.773000000000003</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>1566</v>
       </c>
       <c r="B354">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C354" s="2">
+        <f t="shared" si="5"/>
+        <v>57.847000000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>1567</v>
       </c>
       <c r="B355">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C355" s="2">
+        <f t="shared" si="5"/>
+        <v>57.881999999999998</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>1568</v>
       </c>
       <c r="B356">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C356" s="2">
+        <f t="shared" si="5"/>
+        <v>57.915999999999997</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="B357">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C357" s="2">
+        <f t="shared" si="5"/>
+        <v>57.984999999999999</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>1570</v>
       </c>
       <c r="B358">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C358" s="2">
+        <f t="shared" si="5"/>
+        <v>58.018999999999998</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>1571</v>
       </c>
       <c r="B359">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C359" s="2">
+        <f t="shared" si="5"/>
+        <v>58.091000000000001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>1572</v>
       </c>
       <c r="B360">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C360" s="2">
+        <f t="shared" si="5"/>
+        <v>58.124000000000002</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="B361">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C361" s="2">
+        <f t="shared" si="5"/>
+        <v>58.192</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="B362">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C362" s="2">
+        <f t="shared" si="5"/>
+        <v>58.226999999999997</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>1575</v>
       </c>
       <c r="B363">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C363" s="2">
+        <f t="shared" si="5"/>
+        <v>58.295000000000002</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>1576</v>
       </c>
       <c r="B364">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C364" s="2">
+        <f t="shared" si="5"/>
+        <v>58.328000000000003</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>1577</v>
       </c>
       <c r="B365">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C365" s="2">
+        <f t="shared" si="5"/>
+        <v>58.395000000000003</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>1578</v>
       </c>
       <c r="B366">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C366" s="2">
+        <f t="shared" si="5"/>
+        <v>58.427999999999997</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>1579</v>
       </c>
       <c r="B367">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C367" s="2">
+        <f t="shared" si="5"/>
+        <v>58.494999999999997</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>1580</v>
       </c>
       <c r="B368">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C368" s="2">
+        <f t="shared" si="5"/>
+        <v>58.529000000000003</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>1581</v>
       </c>
       <c r="B369">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C369" s="2">
+        <f t="shared" si="5"/>
+        <v>58.606000000000002</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>1582</v>
       </c>
       <c r="B370">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C370" s="2">
+        <f t="shared" si="5"/>
+        <v>58.64</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>1583</v>
       </c>
       <c r="B371">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C371" s="2">
+        <f t="shared" si="5"/>
+        <v>58.677</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>1584</v>
       </c>
       <c r="B372">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C372" s="2">
+        <f t="shared" si="5"/>
+        <v>58.750999999999998</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>1585</v>
       </c>
       <c r="B373">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C373" s="2">
+        <f t="shared" si="5"/>
+        <v>58.789000000000001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>1586</v>
       </c>
       <c r="B374">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C374" s="2">
+        <f t="shared" si="5"/>
+        <v>58.823</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>1587</v>
       </c>
       <c r="B375">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C375" s="2">
+        <f t="shared" si="5"/>
+        <v>58.893999999999998</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>1588</v>
       </c>
       <c r="B376">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C376" s="2">
+        <f t="shared" si="5"/>
+        <v>58.927999999999997</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>1589</v>
       </c>
       <c r="B377">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C377" s="2">
+        <f t="shared" si="5"/>
+        <v>58.996000000000002</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>1590</v>
       </c>
       <c r="B378">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C378" s="2">
+        <f t="shared" si="5"/>
+        <v>59.033999999999999</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>1591</v>
       </c>
       <c r="B379">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C379" s="2">
+        <f t="shared" si="5"/>
+        <v>59.072000000000003</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>1592</v>
       </c>
       <c r="B380">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C380" s="2">
+        <f t="shared" si="5"/>
+        <v>59.143999999999998</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>1593</v>
       </c>
       <c r="B381">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C381" s="2">
+        <f t="shared" si="5"/>
+        <v>59.177999999999997</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>1594</v>
       </c>
       <c r="B382">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C382" s="2">
+        <f t="shared" si="5"/>
+        <v>59.250999999999998</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>1595</v>
       </c>
       <c r="B383">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C383" s="2">
+        <f t="shared" si="5"/>
+        <v>59.287999999999997</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>1596</v>
       </c>
       <c r="B384">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C384" s="2">
+        <f t="shared" si="5"/>
+        <v>59.322000000000003</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>1597</v>
       </c>
       <c r="B385">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C385" s="2">
+        <f t="shared" si="5"/>
+        <v>59.392000000000003</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>1598</v>
       </c>
       <c r="B386">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C386" s="2">
+        <f t="shared" si="5"/>
+        <v>59.424999999999997</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>1599</v>
       </c>
       <c r="B387">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C387" s="2">
+        <f t="shared" ref="C387:C404" si="6">_xlfn.NUMBERVALUE(MID(A387,7,6))</f>
+        <v>59.494999999999997</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>1600</v>
       </c>
       <c r="B388">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C388" s="2">
+        <f t="shared" si="6"/>
+        <v>59.533000000000001</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>1601</v>
       </c>
       <c r="B389">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C389" s="2">
+        <f t="shared" si="6"/>
+        <v>59.603000000000002</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>1602</v>
       </c>
       <c r="B390">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C390" s="2">
+        <f t="shared" si="6"/>
+        <v>59.636000000000003</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>1603</v>
       </c>
       <c r="B391">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C391" s="2">
+        <f t="shared" si="6"/>
+        <v>59.671999999999997</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>1604</v>
       </c>
       <c r="B392">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C392" s="2">
+        <f t="shared" si="6"/>
+        <v>59.738999999999997</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>1605</v>
       </c>
       <c r="B393">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C393" s="2">
+        <f t="shared" si="6"/>
+        <v>59.774999999999999</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>1606</v>
       </c>
       <c r="B394">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C394" s="2">
+        <f t="shared" si="6"/>
+        <v>59.844999999999999</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>1607</v>
       </c>
       <c r="B395">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C395" s="2">
+        <f t="shared" si="6"/>
+        <v>59.878</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>1608</v>
       </c>
       <c r="B396">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C396" s="2">
+        <f t="shared" si="6"/>
+        <v>59.951000000000001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>1609</v>
       </c>
       <c r="B397">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C397" s="2">
+        <f t="shared" si="6"/>
+        <v>59.988999999999997</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>1610</v>
       </c>
       <c r="B398">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C398" s="2">
+        <f>_xlfn.NUMBERVALUE(MID(A398,7,6))+60</f>
+        <v>60.024000000000001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>1611</v>
       </c>
       <c r="B399">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C399" s="2">
+        <f t="shared" ref="C399:C403" si="7">_xlfn.NUMBERVALUE(MID(A399,7,6))+60</f>
+        <v>60.094999999999999</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>1612</v>
       </c>
       <c r="B400">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C400" s="2">
+        <f t="shared" si="7"/>
+        <v>60.128</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>1613</v>
       </c>
       <c r="B401">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <f t="shared" si="7"/>
+        <v>60.195</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>1614</v>
       </c>
       <c r="B402">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C402" s="2">
+        <f t="shared" si="7"/>
+        <v>60.228999999999999</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>1615</v>
       </c>
       <c r="B403">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C403" s="2">
+        <f t="shared" si="7"/>
+        <v>60.301000000000002</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
     </row>
   </sheetData>
@@ -43675,7 +45323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC66D22-995C-1842-A6C9-948922A10E59}">
   <dimension ref="A1:B406"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
